--- a/file_checks/dataset_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_rogue_pheno.xlsx
@@ -566,508 +566,508 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.196116578529735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628716939344279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116242495143269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.660818433222493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.02280613691158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.61248981276271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.484192651499708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147787400747011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14858929168354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633442893012938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630088346038866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566806221596102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141240231641936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.96394286976786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78117285777016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36773127660754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.483098952888089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.594604735378299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869216972494893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25176090651126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78806127795157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127620656141428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.546640892035901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.575476441858061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.381394836687239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10554422194857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.23114581112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05179957811732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.363132103825733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.382286889578401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844948090216883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0711680224103897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56759080479098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19571722235076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607468233188877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713370481390456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0624202766502772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.86385289490638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.947692899043666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.443988713178094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.496935975255735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.76493377133173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515240396342934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664875234841633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.37793828694686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62003872471018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20136213468416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.959153711071957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.23275722256139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.926914625973646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.16753922266172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.570291349390088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.874963355688045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3015630741763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29929675990607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.498702427777047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498574543160525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.179836922673055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.803936405564362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.519276097813339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07212673060133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0989270115560087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.475801373712552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118337480153855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.536506142973372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.366691668387898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.80766949419707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579459562165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392721806013643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00900136620612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0947088324586656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0856973780426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59944797004361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225457474516594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.10209717498144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.60436489188151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448523944809508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176453516003547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.935235418752671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16698762076238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0551356961507106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03170781057446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832836119061195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.10640013113039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.852656426402696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.89707525762224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.581505162927919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1182164473384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0397452366398061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.35889649646013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18769642966526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5192669104887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.883789686460737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50855871486975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0449578672006798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789904668220336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.475702653927867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.421079816445593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.28874097327099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241629884500764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0609582902864492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15627735802814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04959634628654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.713050886316472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.554384118041461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.50998406521065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.36641502385991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04019542901507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0624218513384962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0482638571940655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0319304401585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.879228946255006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01478231320445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0787745222460787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.294824899349025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.09196979588742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75677365102381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25912306721918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.118926590218389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30941482918007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4861428453634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.738166614659603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370691182434316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49793565203932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.754930360845733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0417058433882787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36064303937153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.293951632114884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167205145950054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.60800259488175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754232116324191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867314818052268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.215585685581527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10559195178697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.426990192379721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0388908851822123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0850345761524791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374235000669356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884448568422084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.682834929835964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.701185315941669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.140616005461363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.600678354821619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.189221382404112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.981447287659219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3596815711724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27204949837977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45425892514637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.353955407127144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218703263790491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19313423259737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70425324256463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17778698474784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.033384141495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.466036195527116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24417253078046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37369511024991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.130487219004239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30890025198707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93060659801437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688417386010465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25800190782805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307519120245427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11957669811619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.181852082857485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796271342121832</t>
+    <t xml:space="preserve">0.770612096429386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0359118142282324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.473715946018089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797513603673467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842262106443867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.788637832226626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419932776579896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.454700827893802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00679304649083678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.829179535794769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.14232082053478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.678278742466372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.662687114825434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.590976002230004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39261863406677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01557105497394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947534234538541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508405205093674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34616526473464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0856260768280432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.999320437745083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.36436489987286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.71458481501262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.214772249633023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.694277114884486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27052361127752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735344042226856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.536057685926513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.610408927673448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369078129405086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.257375288849174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68603651117507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0367079212710246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651174915183575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.56867129621916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.35383517323617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.973490021887554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234112151425123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0951500532756238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119606033118332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95891034388565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549225799912538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.420900218199254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229311038358112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39738590740621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38985313347802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.995197098518834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.255622201118849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.981754923919153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.469175719255089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246276148658173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.196006285054931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339804467079579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10823223308805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354749215924305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24853785405006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757671523508007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724811330342621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96697216939108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20395871443694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.563568876458878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.418657863838912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32562893757457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0883522471632623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55522869785923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.313880491548361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313576608456938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460947485061775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0034807148564489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4384254316754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05062144156667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14177741110591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342172287453143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65456803927075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989987993528095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58709297039418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.637717007053022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24816044527425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.603135682002338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.710379813121383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0553964458034701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.345286590819822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.822259814224136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39609706199143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289498474314194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56193033802796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0371796963813914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.337140282599086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12996941369179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40933195612938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093413659916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580947354612558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02140175996992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.446312007444156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.641767408295468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03713011396732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231261552362141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40336766074653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359248993584115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817160193676378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.66066121998909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.76259328724431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09641872195131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38451198875081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.927163109864551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76644183790443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.545105522509619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377524831126351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38777316162487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87988706018336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75199479145075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425721707442883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0412134740588631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.90988388665187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.303161401520623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72740918144667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39313445314062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.269077465844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.528463723133664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0536830977416135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.19063333792515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77993209963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625659198595289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221134124781133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552428321897786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.549629838932795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.74949612094899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.191129561952487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.854761635555344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150838335042341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0885701176661673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.227214230842983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531924396315639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.01902202217775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65491792494875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675002508350095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151337031197772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48423671382818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48614197818919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05907253608384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.809477985506494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.554878601358774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725660063761516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.45148477291033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.13969338656428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59357589799039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00888250870097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09577894883342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34810824654042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.074189428678705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82746019252635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513071410967045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774864185449724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.376647265476469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30498224101733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.868819553997233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.71139000148334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1549389268979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.24620764206191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.278884619031996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.917390755202827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797020606518887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.07873138215251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444719458990147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963212637684153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.204251636421328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -2462,13 +2462,13 @@
         <v>351</v>
       </c>
       <c r="FM2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FN2" t="s">
         <v>350</v>
       </c>
       <c r="FO2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FP2" t="s">
         <v>350</v>
@@ -2480,7 +2480,7 @@
         <v>351</v>
       </c>
       <c r="FS2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT2" t="s">
         <v>350</v>
@@ -2489,13 +2489,13 @@
         <v>351</v>
       </c>
       <c r="FV2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FW2" t="s">
         <v>350</v>
       </c>
       <c r="FX2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FY2" t="s">
         <v>350</v>
@@ -2504,7 +2504,7 @@
         <v>350</v>
       </c>
       <c r="GA2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="GB2" t="s">
         <v>352</v>
@@ -3016,13 +3016,13 @@
         <v>351</v>
       </c>
       <c r="FM3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FN3" t="s">
         <v>350</v>
       </c>
       <c r="FO3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FP3" t="s">
         <v>350</v>
@@ -3034,7 +3034,7 @@
         <v>351</v>
       </c>
       <c r="FS3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT3" t="s">
         <v>350</v>
@@ -3043,13 +3043,13 @@
         <v>351</v>
       </c>
       <c r="FV3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FW3" t="s">
         <v>350</v>
       </c>
       <c r="FX3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FY3" t="s">
         <v>350</v>
@@ -3058,7 +3058,7 @@
         <v>350</v>
       </c>
       <c r="GA3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="GB3" t="s">
         <v>352</v>
@@ -3570,13 +3570,13 @@
         <v>351</v>
       </c>
       <c r="FM4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FN4" t="s">
         <v>350</v>
       </c>
       <c r="FO4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FP4" t="s">
         <v>350</v>
@@ -3588,7 +3588,7 @@
         <v>351</v>
       </c>
       <c r="FS4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT4" t="s">
         <v>350</v>
@@ -3597,13 +3597,13 @@
         <v>351</v>
       </c>
       <c r="FV4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FW4" t="s">
         <v>350</v>
       </c>
       <c r="FX4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FY4" t="s">
         <v>350</v>
@@ -3612,7 +3612,7 @@
         <v>350</v>
       </c>
       <c r="GA4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="GB4" t="s">
         <v>352</v>

--- a/file_checks/dataset_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_rogue_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">1017</t>
   </si>
@@ -563,505 +563,514 @@
     <t xml:space="preserve">rorS_risk_high</t>
   </si>
   <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770612096429386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0359118142282324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.473715946018089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797513603673467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842262106443867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.788637832226626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419932776579896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.454700827893802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00679304649083678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.829179535794769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.14232082053478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.678278742466372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.662687114825434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.590976002230004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39261863406677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01557105497394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947534234538541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508405205093674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34616526473464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0856260768280432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.999320437745083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.36436489987286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.71458481501262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.214772249633023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.694277114884486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27052361127752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735344042226856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.536057685926513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.610408927673448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369078129405086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.257375288849174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68603651117507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0367079212710246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651174915183575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.56867129621916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.35383517323617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.973490021887554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234112151425123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0951500532756238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119606033118332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95891034388565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549225799912538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.420900218199254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229311038358112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39738590740621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38985313347802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.995197098518834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.255622201118849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.981754923919153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.469175719255089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246276148658173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.196006285054931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339804467079579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10823223308805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354749215924305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24853785405006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757671523508007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724811330342621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96697216939108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20395871443694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.563568876458878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.418657863838912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32562893757457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0883522471632623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55522869785923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.313880491548361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313576608456938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460947485061775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0034807148564489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.4384254316754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05062144156667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14177741110591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342172287453143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65456803927075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989987993528095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58709297039418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.637717007053022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24816044527425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.603135682002338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.710379813121383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0553964458034701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.345286590819822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.822259814224136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39609706199143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289498474314194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56193033802796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0371796963813914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.337140282599086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12996941369179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40933195612938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093413659916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580947354612558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02140175996992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.446312007444156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.641767408295468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03713011396732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231261552362141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40336766074653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359248993584115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817160193676378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66066121998909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.76259328724431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09641872195131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38451198875081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.927163109864551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76644183790443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.545105522509619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377524831126351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38777316162487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87988706018336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75199479145075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425721707442883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0412134740588631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.90988388665187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.303161401520623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72740918144667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39313445314062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.269077465844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.528463723133664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0536830977416135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.19063333792515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77993209963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625659198595289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221134124781133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552428321897786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.549629838932795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.74949612094899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.191129561952487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.854761635555344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150838335042341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0885701176661673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.227214230842983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531924396315639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01902202217775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65491792494875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675002508350095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151337031197772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48423671382818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48614197818919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05907253608384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.809477985506494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.554878601358774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725660063761516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.45148477291033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.13969338656428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59357589799039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00888250870097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09577894883342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34810824654042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.074189428678705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82746019252635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513071410967045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774864185449724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.376647265476469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30498224101733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.868819553997233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.71139000148334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1549389268979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.24620764206191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.278884619031996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.917390755202827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797020606518887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.07873138215251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444719458990147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963212637684153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.204251636421328</t>
+    <t xml:space="preserve">2.11073173901782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.198894387819182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77660845472014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92606888807566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.392070276369711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79484169843796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920810998032186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.191680876868917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626572853547814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665560855590728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67397295629123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0210875408494524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60111728617058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216098995327311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.570191748548242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840447474014985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116024245592585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40170597088963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0560746857865213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101688126193258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.29729349040635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48305256313616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5783470195581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.473967463428974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25808152708126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.661977201234999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.204673912460493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.363232983573891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573669692098419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12908946667453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.940804185447985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320916087346791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.952247404139133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40329654762293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.27461523353861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09128189161226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99541216532304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0531019604430832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18484877107795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64888667359044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.525432829706872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.791182689076842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.935414841911378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5391094510187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.08101754232805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0420183823327314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50414539659917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14945193071283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.28813804578788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06946118314738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154926418762004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850991846667264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210493780987279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15625066992025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50593560025629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622647627253074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549146510743686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262084990656946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0980415743340962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425881816447076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.391757516773048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79584654032436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30558823822663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.560221709454582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.28141133692269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.87413455079501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40457565167196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.79129690865065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.79658281434061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.270898598182417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.364014211333094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0846494870632405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.476320028983839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474904596581926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.516827796516089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10849190192121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884185933460389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.354723728269344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.372257584145949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.04046990169601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13845257986807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.035451747935278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.148869081192033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.749034496032362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49622326346476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786901416967454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987533794046882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.360530379169112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.604868596461742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34839606010808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61398875155459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45496639679591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.02090235581919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49415454208822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3390689115463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600757056738508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815766158541922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40716937501134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.04189187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39146333566161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0577559439976878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74980737554776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.440475387073101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67650165528098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.537084162184574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62052712262497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.273031770412716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00289655490585342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.264452059520937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631012736787161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.249995960637165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785355866893976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85444639414458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399882974152298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669480946841769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.514339571541939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1775078940832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35642906785354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.53424543978067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23192875256335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.665341079506685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.563005692866736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.411615110934519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63646536924595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.310533804432997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.66622877066433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174498021945875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414514494602563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.32680564179856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.49422176646982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.480434107835593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.953626846006561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26556231914679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23859620997524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37822639586227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.617377254704289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05325991585874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.135940043870663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1047165488476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23248179261492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.762413374406342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0589834425442834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.548327941447106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587489710753876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91768808013738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.74343120490695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17791859464338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641159357895331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.762833219660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.237220272043007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.62780241335243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530854949130977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.435525854679494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772313863852033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.520286685400206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.189460874100905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639498157243113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303766147222117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538627491345293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29742050842942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695881442047065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351402276862711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.440713156545978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451843060043333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.57553495888307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816360280477138</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1955,1667 +1964,1703 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FM2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FP2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FQ2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FR2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FS2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FT2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FV2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FW2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FX2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GA2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GB2" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>353</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>353</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FM3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FP3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FQ3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FR3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FS3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FT3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FV3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FW3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FX3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GA3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GB3" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>353</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>353</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FM4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FP4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FQ4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FR4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FS4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FT4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FV4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FW4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FX4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GA4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GB4" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>353</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>353</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/dataset_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_correct_genes_rogue_pheno.xlsx
@@ -575,502 +575,502 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11073173901782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.198894387819182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77660845472014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92606888807566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.392070276369711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79484169843796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920810998032186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.191680876868917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626572853547814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665560855590728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67397295629123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0210875408494524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60111728617058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216098995327311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.570191748548242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840447474014985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116024245592585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40170597088963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0560746857865213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101688126193258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.29729349040635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48305256313616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5783470195581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473967463428974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25808152708126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.661977201234999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.204673912460493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.363232983573891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573669692098419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12908946667453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.940804185447985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320916087346791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.952247404139133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40329654762293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.27461523353861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09128189161226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99541216532304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0531019604430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18484877107795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64888667359044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.525432829706872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.791182689076842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.935414841911378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5391094510187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.08101754232805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0420183823327314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50414539659917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14945193071283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.28813804578788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06946118314738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154926418762004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850991846667264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210493780987279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15625066992025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50593560025629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622647627253074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549146510743686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262084990656946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0980415743340962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425881816447076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.391757516773048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79584654032436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30558823822663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.560221709454582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.28141133692269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.87413455079501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40457565167196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.79129690865065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.79658281434061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.270898598182417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.364014211333094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0846494870632405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.476320028983839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474904596581926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516827796516089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10849190192121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884185933460389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.354723728269344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.372257584145949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04046990169601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13845257986807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.035451747935278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.148869081192033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.749034496032362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49622326346476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786901416967454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987533794046882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.360530379169112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.604868596461742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34839606010808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61398875155459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45496639679591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.02090235581919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49415454208822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3390689115463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600757056738508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815766158541922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40716937501134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04189187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39146333566161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0577559439976878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74980737554776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.440475387073101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67650165528098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.537084162184574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62052712262497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.273031770412716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00289655490585342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.264452059520937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631012736787161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.249995960637165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785355866893976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85444639414458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399882974152298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669480946841769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.514339571541939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1775078940832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35642906785354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.53424543978067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23192875256335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.665341079506685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.563005692866736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.411615110934519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63646536924595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.310533804432997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66622877066433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174498021945875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414514494602563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.32680564179856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.49422176646982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.480434107835593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.953626846006561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.26556231914679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23859620997524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37822639586227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.617377254704289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05325991585874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.135940043870663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1047165488476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23248179261492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.762413374406342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0589834425442834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.548327941447106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587489710753876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91768808013738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.74343120490695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17791859464338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641159357895331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.762833219660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.237220272043007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.62780241335243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530854949130977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.435525854679494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772313863852033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.520286685400206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.189460874100905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639498157243113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303766147222117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538627491345293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29742050842942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695881442047065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351402276862711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.440713156545978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451843060043333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.57553495888307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816360280477138</t>
+    <t xml:space="preserve">1.84713068341346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.475889442334765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.525030685629182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1032082949175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.58270515323546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248798173764831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209426075503752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.373219102730491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.359001900959366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.537453619722445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.868788219500641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.979105210150112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185946819041909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.21665285526388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.252271894661533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00193520931637203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.12357673632504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.79075085519771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.603346537203679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57655022454787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.259757006583766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00930002018294719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.810344631188039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.909150107406205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7011428825748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247367057890843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.420750663058693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44881460270749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.610458641668668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0834360312219249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.574990649064517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.79194084289944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.12633441186702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.222462759906977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.548062107363097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23348595004451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.88300216332132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.865373238586428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246235107840787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.88321643926803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.846570697428882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.64823089521733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13669283625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42659620025912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2760788238501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.318569460825347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48959064498111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6831212798379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34755847870131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106441301941899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43604007482627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.80332356934639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337279772181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.432229252774097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782332481782176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.790573792065226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.75738564462557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353527996068186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235720355708108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86078003190936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.94132610108508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18310890121289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46048082922129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47211196729425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.322516400013894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6336110790349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0297277605715845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975423282713726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570374074921883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.44799162968013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207394248526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138715820830553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.276215732636202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698059678155223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619393773329074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636863156457264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50733948518676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957667527574309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56844607278747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22876938036319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0630690602083147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1753668456896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.313437204381501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399784774208629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.606918689526662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0072190189035387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135301231783681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93988853530365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0245959170300281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813118655240413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.669968154965751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00417401358177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.970243013879933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10582194445805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.38597625906491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3238179008623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0998102941431564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.274457140788195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.905824815557512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69797605354294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.943312435409367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.79203007845391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.36002387331673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.420942638735418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98454856716872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10293844115028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.557697120547075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0273720456595082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0656197790114744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760568091950761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0824160279721441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299409974434941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0701734673315202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884948718736162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26749392984892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173565116467633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.522739029351271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.351349105561581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386694390933438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238951710292705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0740678614711323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.701986533780332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.265205135782401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.03787760481243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.185427128622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.469853304072201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.366156434898536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.90044791092467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.1450606601463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561537556082676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.229771524196254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.12745675890203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0745818220543612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19862255200038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.384400235927241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62074139504922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327250568191449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03453764117969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.63676722695878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.253139724764294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.574688860835831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.746617123459251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191503824760207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6757589288518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894973027040832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119025153835269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.794725776407641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273428427242569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606505678549454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.483077889664751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555404147147792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.107222702676978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.72566520355417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482506299334363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88782855650656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200256111443802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848530597988544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415535081377085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.504229884664248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94041922270092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539682481000096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.421988103126896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2794415126178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865022984315037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393462091073161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.120987736908001</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -2480,13 +2480,13 @@
         <v>354</v>
       </c>
       <c r="FM2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FP2" t="s">
         <v>354</v>
@@ -2498,7 +2498,7 @@
         <v>354</v>
       </c>
       <c r="FS2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FT2" t="s">
         <v>353</v>
@@ -2507,25 +2507,25 @@
         <v>353</v>
       </c>
       <c r="FV2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FW2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FX2" t="s">
         <v>354</v>
       </c>
       <c r="FY2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GA2" t="s">
         <v>354</v>
       </c>
       <c r="GB2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GC2" t="s">
         <v>353</v>
@@ -3043,13 +3043,13 @@
         <v>354</v>
       </c>
       <c r="FM3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FP3" t="s">
         <v>354</v>
@@ -3061,7 +3061,7 @@
         <v>354</v>
       </c>
       <c r="FS3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FT3" t="s">
         <v>353</v>
@@ -3070,25 +3070,25 @@
         <v>353</v>
       </c>
       <c r="FV3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FW3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FX3" t="s">
         <v>354</v>
       </c>
       <c r="FY3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GA3" t="s">
         <v>354</v>
       </c>
       <c r="GB3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GC3" t="s">
         <v>353</v>
@@ -3606,13 +3606,13 @@
         <v>354</v>
       </c>
       <c r="FM4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FP4" t="s">
         <v>354</v>
@@ -3624,7 +3624,7 @@
         <v>354</v>
       </c>
       <c r="FS4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FT4" t="s">
         <v>353</v>
@@ -3633,25 +3633,25 @@
         <v>353</v>
       </c>
       <c r="FV4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FW4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FX4" t="s">
         <v>354</v>
       </c>
       <c r="FY4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GA4" t="s">
         <v>354</v>
       </c>
       <c r="GB4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GC4" t="s">
         <v>353</v>
